--- a/uclbrt/random.xlsx
+++ b/uclbrt/random.xlsx
@@ -1,164 +1,111 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="630" yWindow="630" windowWidth="14775" windowHeight="7200"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>HyQuKhdMoPjT</t>
   </si>
   <si>
-    <t>MtiqsRw6NVA9</t>
-  </si>
-  <si>
-    <t>XKEfEGXmKLLT</t>
-  </si>
-  <si>
-    <t>9umnwvYGoHhQ</t>
-  </si>
-  <si>
-    <t>v5OIuG0JUePs</t>
-  </si>
-  <si>
-    <t>qioep2LdkYY2</t>
-  </si>
-  <si>
-    <t>O3inngSQlrMW</t>
-  </si>
-  <si>
-    <t>kSh2UUf4gaPj</t>
-  </si>
-  <si>
-    <t>WZjwuyP6iO7m</t>
-  </si>
-  <si>
-    <t>gjV3aJK5svKV</t>
-  </si>
-  <si>
-    <t>5EFrTXEOApAa</t>
-  </si>
-  <si>
-    <t>RJlbBbee9bbw</t>
-  </si>
-  <si>
-    <t>1b1XpVX5h4e1</t>
-  </si>
-  <si>
-    <t>Jr2NMEZVkZRD</t>
-  </si>
-  <si>
-    <t>5lWqaVOtAauh</t>
-  </si>
-  <si>
-    <t>quvZwJegPQ6c</t>
-  </si>
-  <si>
-    <t>PKBCzpXV02Wm</t>
-  </si>
-  <si>
-    <t>PNan0Q2shi7n</t>
-  </si>
-  <si>
-    <t>CwKfDfmmiOsx</t>
-  </si>
-  <si>
-    <t>nZIaMtVI54iH</t>
-  </si>
-  <si>
     <t>zGiey7INLgbt</t>
   </si>
   <si>
+    <t>iy82AmH1ague</t>
+  </si>
+  <si>
+    <t>1EZ0jfzZ8CYm</t>
+  </si>
+  <si>
+    <t>vfr6ANgO2j4y</t>
+  </si>
+  <si>
+    <t>RychEm5kJRcK</t>
+  </si>
+  <si>
+    <t>P73hCPJ1p70J</t>
+  </si>
+  <si>
+    <t>RuCHyBVK8LM3</t>
+  </si>
+  <si>
+    <t>OD1wyWEwFAHb</t>
+  </si>
+  <si>
+    <t>u9ZezS9yoc0s</t>
+  </si>
+  <si>
+    <t>0v6emX8lmjh8</t>
+  </si>
+  <si>
+    <t>1qtgsCSXjXUK</t>
+  </si>
+  <si>
+    <t>Oc65QBOHoH8a</t>
+  </si>
+  <si>
+    <t>ZtH2hsHdyG8O</t>
+  </si>
+  <si>
+    <t>PcxDD0eo4R8T</t>
+  </si>
+  <si>
+    <t>zOfUOKYJFVEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ZiLbgDaAQkXj</t>
-  </si>
-  <si>
-    <t>iy82AmH1ague</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>EYIl2ebzqFLx</t>
-  </si>
-  <si>
-    <t>1EZ0jfzZ8CYm</t>
-  </si>
-  <si>
-    <t>vfr6ANgO2j4y</t>
-  </si>
-  <si>
-    <t>RychEm5kJRcK</t>
-  </si>
-  <si>
-    <t>P73hCPJ1p70J</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ueBFG8OksnM2</t>
-  </si>
-  <si>
-    <t>RuCHyBVK8LM3</t>
-  </si>
-  <si>
-    <t>zOfUOKYJFVEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>l1naep48ayWi</t>
-  </si>
-  <si>
-    <t>OD1wyWEwFAHb</t>
-  </si>
-  <si>
-    <t>u9ZezS9yoc0s</t>
-  </si>
-  <si>
-    <t>0v6emX8lmjh8</t>
-  </si>
-  <si>
-    <t>1qtgsCSXjXUK</t>
-  </si>
-  <si>
-    <t>Oc65QBOHoH8a</t>
-  </si>
-  <si>
-    <t>ZtH2hsHdyG8O</t>
-  </si>
-  <si>
-    <t>PcxDD0eo4R8T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <family val="3"/>
-      <sz val="9"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -174,15 +121,21 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -472,160 +425,148 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="18.75"/>
+    <col min="1" max="1" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="203" orientation="portrait" paperSize="122" verticalDpi="203"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="122" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="122" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/uclbrt/random.xlsx
+++ b/uclbrt/random.xlsx
@@ -16,70 +16,315 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>HyQuKhdMoPjT</t>
-  </si>
-  <si>
-    <t>zGiey7INLgbt</t>
-  </si>
-  <si>
-    <t>iy82AmH1ague</t>
-  </si>
-  <si>
-    <t>1EZ0jfzZ8CYm</t>
-  </si>
-  <si>
-    <t>vfr6ANgO2j4y</t>
-  </si>
-  <si>
-    <t>RychEm5kJRcK</t>
-  </si>
-  <si>
-    <t>P73hCPJ1p70J</t>
-  </si>
-  <si>
-    <t>RuCHyBVK8LM3</t>
-  </si>
-  <si>
-    <t>OD1wyWEwFAHb</t>
-  </si>
-  <si>
-    <t>u9ZezS9yoc0s</t>
-  </si>
-  <si>
-    <t>0v6emX8lmjh8</t>
-  </si>
-  <si>
-    <t>1qtgsCSXjXUK</t>
-  </si>
-  <si>
-    <t>Oc65QBOHoH8a</t>
-  </si>
-  <si>
-    <t>ZtH2hsHdyG8O</t>
-  </si>
-  <si>
-    <t>PcxDD0eo4R8T</t>
-  </si>
-  <si>
-    <t>zOfUOKYJFVEL</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
+  <si>
+    <t>cyQuKhdMoPj1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ZiLbgDaAQkXj</t>
+    <t>cyQuKhdMoPj2</t>
+  </si>
+  <si>
+    <t>cyQuKhdMoPj3</t>
+  </si>
+  <si>
+    <t>cyQuKhdMoPj4</t>
+  </si>
+  <si>
+    <t>cyQuKhdMoPj5</t>
+  </si>
+  <si>
+    <t>cyQuKhdMoPj6</t>
+  </si>
+  <si>
+    <t>cyQuKhdMoPj7</t>
+  </si>
+  <si>
+    <t>cyQuKhdMoPj8</t>
+  </si>
+  <si>
+    <t>cyQuKhdMoPj36</t>
+  </si>
+  <si>
+    <t>cyQuKhdMoPj37</t>
+  </si>
+  <si>
+    <t>cyQuKhdMoPj38</t>
+  </si>
+  <si>
+    <t>cyQuKhdMoPj39</t>
+  </si>
+  <si>
+    <t>cyQuKhdMoPj40</t>
+  </si>
+  <si>
+    <t>cyQuKhdMoPj41</t>
+  </si>
+  <si>
+    <t>cyQuKhdMoPj42</t>
+  </si>
+  <si>
+    <t>cyQuKhdMoPj43</t>
+  </si>
+  <si>
+    <t>cyQuKhdMoPj44</t>
+  </si>
+  <si>
+    <t>cyQuKhdMoPj45</t>
+  </si>
+  <si>
+    <t>cyQuKhdMoPj46</t>
+  </si>
+  <si>
+    <t>cyQuKhdMoPj47</t>
+  </si>
+  <si>
+    <t>cyQuKhdMoPj48</t>
+  </si>
+  <si>
+    <t>cyQuKhdMoPj49</t>
+  </si>
+  <si>
+    <t>cyQuKhdMoPj50</t>
+  </si>
+  <si>
+    <t>cyQuKhdMoPj51</t>
+  </si>
+  <si>
+    <t>cyQuKhdMoPj52</t>
+  </si>
+  <si>
+    <t>cyQuKhdMoPj53</t>
+  </si>
+  <si>
+    <t>cyQuKhdMoPj54</t>
+  </si>
+  <si>
+    <t>cyQuKhdMoPj55</t>
+  </si>
+  <si>
+    <t>cyQuKhdMoPj56</t>
+  </si>
+  <si>
+    <t>cyQuKhdMoPj57</t>
+  </si>
+  <si>
+    <t>cyQuKhdMoPj58</t>
+  </si>
+  <si>
+    <t>cyQuKhdMoPj59</t>
+  </si>
+  <si>
+    <t>cyQuKhdMoPj60</t>
+  </si>
+  <si>
+    <t>cyQuKhdMoPj61</t>
+  </si>
+  <si>
+    <t>cyQuKhdMoPj62</t>
+  </si>
+  <si>
+    <t>cyQuKhdMoPj63</t>
+  </si>
+  <si>
+    <t>cyQuKhdMoPj64</t>
+  </si>
+  <si>
+    <t>cyQuKhdMoPj65</t>
+  </si>
+  <si>
+    <t>cyQuKhdMoPj66</t>
+  </si>
+  <si>
+    <t>cyQuKhdMoPj67</t>
+  </si>
+  <si>
+    <t>cyQuKhdMoPj68</t>
+  </si>
+  <si>
+    <t>cyQuKhdMoPj69</t>
+  </si>
+  <si>
+    <t>cyQuKhdMoPj70</t>
+  </si>
+  <si>
+    <t>cyQuKhdMoPj71</t>
+  </si>
+  <si>
+    <t>cyQuKhdMoPj72</t>
+  </si>
+  <si>
+    <t>cyQuKhdMoPj73</t>
+  </si>
+  <si>
+    <t>cyQuKhdMoPj74</t>
+  </si>
+  <si>
+    <t>cyQuKhdMoPj75</t>
+  </si>
+  <si>
+    <t>cyQuKhdMoPj76</t>
+  </si>
+  <si>
+    <t>cyQuKhdMoPj77</t>
+  </si>
+  <si>
+    <t>cyQuKhdMoPj78</t>
+  </si>
+  <si>
+    <t>cyQuKhdMoPj79</t>
+  </si>
+  <si>
+    <t>cyQuKhdMoPj80</t>
+  </si>
+  <si>
+    <t>cyQuKhdMoPj81</t>
+  </si>
+  <si>
+    <t>cyQuKhdMoPj82</t>
+  </si>
+  <si>
+    <t>cyQuKhdMoPj83</t>
+  </si>
+  <si>
+    <t>cyQuKhdMoPj84</t>
+  </si>
+  <si>
+    <t>cyQuKhdMoPj85</t>
+  </si>
+  <si>
+    <t>cyQuKhdMoPj86</t>
+  </si>
+  <si>
+    <t>cyQuKhdMoPj87</t>
+  </si>
+  <si>
+    <t>cyQuKhdMoPj88</t>
+  </si>
+  <si>
+    <t>cyQuKhdMoPj89</t>
+  </si>
+  <si>
+    <t>cyQuKhdMoPj90</t>
+  </si>
+  <si>
+    <t>cyQuKhdMoPj91</t>
+  </si>
+  <si>
+    <t>cyQuKhdMoPj92</t>
+  </si>
+  <si>
+    <t>cyQuKhdMoPj93</t>
+  </si>
+  <si>
+    <t>cyQuKhdMoPj94</t>
+  </si>
+  <si>
+    <t>cyQuKhdMoPj95</t>
+  </si>
+  <si>
+    <t>cyQuKhdMoPj96</t>
+  </si>
+  <si>
+    <t>cyQuKhdMoPj97</t>
+  </si>
+  <si>
+    <t>cyQuKhdMoPj98</t>
+  </si>
+  <si>
+    <t>cyQuKhdMoPj99</t>
+  </si>
+  <si>
+    <t>cyQuKhdMoPj100</t>
+  </si>
+  <si>
+    <t>cyQuKhdMoPj101</t>
+  </si>
+  <si>
+    <t>cyQuKhdMoPj102</t>
+  </si>
+  <si>
+    <t>cyQueedMoPj1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EYIl2ebzqFLx</t>
+    <t>cyQueedMoPj2</t>
+  </si>
+  <si>
+    <t>cyQueedMoPj3</t>
+  </si>
+  <si>
+    <t>cyQueedMoPj4</t>
+  </si>
+  <si>
+    <t>cyQueedMoPj5</t>
+  </si>
+  <si>
+    <t>cyQueedMoPj6</t>
+  </si>
+  <si>
+    <t>cyQueedMoPj7</t>
+  </si>
+  <si>
+    <t>cyQueedMoPj8</t>
+  </si>
+  <si>
+    <t>cyQueedMoPj9</t>
+  </si>
+  <si>
+    <t>cyQueedMoPj10</t>
+  </si>
+  <si>
+    <t>cyQueeggoPj1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ueBFG8OksnM2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>l1naep48ayWi</t>
+    <t>cyQueeggoPj2</t>
+  </si>
+  <si>
+    <t>cyQueeggoPj3</t>
+  </si>
+  <si>
+    <t>cyQueeggoPj4</t>
+  </si>
+  <si>
+    <t>cyQueeggoPj5</t>
+  </si>
+  <si>
+    <t>cyQueeggoPj6</t>
+  </si>
+  <si>
+    <t>cyQueeggoPj7</t>
+  </si>
+  <si>
+    <t>cyQueeggoPj8</t>
+  </si>
+  <si>
+    <t>cyQueeggoPj9</t>
+  </si>
+  <si>
+    <t>cyQueeggoPj10</t>
+  </si>
+  <si>
+    <t>cyQueeggoPj11</t>
+  </si>
+  <si>
+    <t>cyQueeggoPj12</t>
+  </si>
+  <si>
+    <t>cyQueeggoPj13</t>
+  </si>
+  <si>
+    <t>cyQueeggoPj14</t>
+  </si>
+  <si>
+    <t>cyQueeggoPj15</t>
+  </si>
+  <si>
+    <t>cyQueeggoPj16</t>
+  </si>
+  <si>
+    <t>cyQuKhdMoPj9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -426,10 +671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:A102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -449,92 +694,502 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A76" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A77" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A78" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A79" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A80" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A81" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A82" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A83" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A84" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A85" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A86" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A87" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A88" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A89" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A90" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A91" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A92" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A93" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A94" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A95" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A96" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A97" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A98" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A99" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A100" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A101" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A102" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
